--- a/DS402 Prüfungsübersicht.xlsx
+++ b/DS402 Prüfungsübersicht.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heigl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lankja\Desktop\GitRepoDS402_Testing_PLC\DS402_Testing_PLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="325">
   <si>
     <t>Prüfübersicht</t>
   </si>
@@ -1048,6 +1048,12 @@
   </si>
   <si>
     <t>0x1F</t>
+  </si>
+  <si>
+    <t>Wiederanlauf</t>
+  </si>
+  <si>
+    <t>Kein Wiederanlauf</t>
   </si>
 </sst>
 </file>
@@ -1427,21 +1433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1477,6 +1468,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2260,10 +2266,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,6 +2719,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3027,10 +3035,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,17 +3048,17 @@
     <col min="2" max="33" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
@@ -3060,7 +3069,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" s="37">
         <v>1</v>
       </c>
@@ -3077,8 +3086,14 @@
       <c r="T6" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AA6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="38">
         <v>2</v>
       </c>
@@ -3095,8 +3110,14 @@
       <c r="T7" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AA7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="39">
         <v>3</v>
       </c>
@@ -3114,7 +3135,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="40">
         <v>4</v>
       </c>
@@ -3132,7 +3153,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="I10" s="32">
         <v>5</v>
@@ -3145,7 +3166,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I11" s="33">
         <v>6</v>
       </c>
@@ -3153,7 +3174,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I12" s="34">
         <v>7</v>
       </c>
@@ -3167,7 +3188,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I13" s="35">
         <v>8</v>
       </c>
@@ -3175,53 +3196,53 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F14" s="23"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="49">
         <v>1</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52">
         <v>2</v>
       </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60">
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="55">
         <v>3</v>
       </c>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="63">
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="58">
         <v>4</v>
       </c>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="65"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="60"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -3326,91 +3347,91 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="61">
         <v>3</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50">
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61">
         <v>2</v>
       </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50">
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61">
         <v>3</v>
       </c>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50">
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61">
         <v>4</v>
       </c>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="51" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51" t="s">
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="52" t="s">
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -3426,16 +3447,16 @@
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
       <c r="R22" s="48" t="s">
         <v>298</v>
       </c>
@@ -3446,16 +3467,16 @@
       <c r="W22" s="48"/>
       <c r="X22" s="48"/>
       <c r="Y22" s="48"/>
-      <c r="Z22" s="49" t="s">
+      <c r="Z22" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3471,16 +3492,16 @@
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
       <c r="R23" s="48" t="s">
         <v>299</v>
       </c>
@@ -3491,16 +3512,16 @@
       <c r="W23" s="48"/>
       <c r="X23" s="48"/>
       <c r="Y23" s="48"/>
-      <c r="Z23" s="49" t="s">
+      <c r="Z23" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3516,51 +3537,51 @@
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49" t="s">
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49" t="s">
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="48" t="s">
         <v>312</v>
       </c>
@@ -3571,16 +3592,16 @@
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
       <c r="Q25" s="48"/>
-      <c r="R25" s="49" t="s">
+      <c r="R25" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
       <c r="Z25" s="48" t="s">
         <v>312</v>
       </c>
@@ -3596,16 +3617,16 @@
       <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="41" t="s">
         <v>295</v>
       </c>
@@ -3630,16 +3651,16 @@
       <c r="Q26" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="R26" s="49" t="s">
+      <c r="R26" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
       <c r="Z26" s="41" t="s">
         <v>295</v>
       </c>
@@ -3669,16 +3690,16 @@
       <c r="A27">
         <v>8</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="48" t="s">
         <v>303</v>
       </c>
@@ -3714,16 +3735,16 @@
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
       <c r="N28" s="41" t="s">
         <v>296</v>
       </c>
@@ -3733,6 +3754,9 @@
       <c r="P28" s="24" t="s">
         <v>319</v>
       </c>
+      <c r="Q28" t="s">
+        <v>306</v>
+      </c>
       <c r="R28" s="41" t="s">
         <v>295</v>
       </c>
@@ -3765,6 +3789,9 @@
       </c>
       <c r="AF28" s="24" t="s">
         <v>319</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -3844,6 +3871,9 @@
       <c r="X30" s="24" t="s">
         <v>319</v>
       </c>
+      <c r="Y30" t="s">
+        <v>306</v>
+      </c>
       <c r="AD30" s="41" t="s">
         <v>302</v>
       </c>
@@ -3885,6 +3915,9 @@
       <c r="H32" s="24" t="s">
         <v>319</v>
       </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
       <c r="V32" s="41" t="s">
         <v>302</v>
       </c>
@@ -3916,11 +3949,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="Z27:AG27"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R25:Y25"/>
+    <mergeCell ref="R26:Y26"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="R27:Y27"/>
     <mergeCell ref="R29:Y29"/>
     <mergeCell ref="Z20:AG20"/>
     <mergeCell ref="Z21:AG21"/>
@@ -3937,23 +3982,11 @@
     <mergeCell ref="R24:Y24"/>
     <mergeCell ref="Z23:AG23"/>
     <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="Z27:AG27"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R25:Y25"/>
-    <mergeCell ref="R26:Y26"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="R27:Y27"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="Z18:AG18"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3962,6 +3995,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4330,9 +4364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -5062,6 +5097,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5399,6 +5435,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6154,6 +6191,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6748,6 +6786,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7370,6 +7409,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
